--- a/target/classes/excel/comment_output.xlsx
+++ b/target/classes/excel/comment_output.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16CC253-807B-41B2-BA93-1A26D777432A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A55811-1CC6-4D23-BC4E-30EE6A13B4DD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1680" yWindow="3480" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,36 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Author</author>
+    <author/>
     <author>Me</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{6C43D175-85D9-4390-B011-6483F77700AA}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-jx:area(lastCell="A5")</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="A3" authorId="1">
       <text>
         <t>Hello</t>
@@ -63,6 +39,11 @@
     <comment ref="A5" authorId="1">
       <text>
         <t>jx:each(lastCell='A5' items='l2' var='obj')</t>
+      </text>
+    </comment>
+    <comment ref="A1" authorId="0">
+      <text>
+        <t>jx:area(lastCell='A5')</t>
       </text>
     </comment>
   </commentList>
@@ -92,7 +73,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,19 +87,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -436,11 +404,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,7 +436,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId4"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/target/classes/excel/comment_output.xlsx
+++ b/target/classes/excel/comment_output.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A55811-1CC6-4D23-BC4E-30EE6A13B4DD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028B2493-10CD-48CC-B893-93EABD7BA9C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="3480" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2790" yWindow="3090" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,24 +26,14 @@
     <author>Me</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="1">
+    <comment ref="A4" authorId="1">
       <text>
         <t>Hello</t>
       </text>
     </comment>
-    <comment ref="A4" authorId="1">
-      <text>
-        <t>jx:each(lastCell='A4' items='l1' var='obj')</t>
-      </text>
-    </comment>
-    <comment ref="A5" authorId="1">
-      <text>
-        <t>jx:each(lastCell='A5' items='l2' var='obj')</t>
-      </text>
-    </comment>
     <comment ref="A1" authorId="0">
       <text>
-        <t>jx:area(lastCell='A5')</t>
+        <t>jx:area(lastCell='A1')</t>
       </text>
     </comment>
   </commentList>
@@ -51,21 +41,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>comment here</t>
-  </si>
-  <si>
-    <t>PRINT l2</t>
-  </si>
-  <si>
-    <t>PRINT l1</t>
   </si>
   <si>
     <t>Start</t>
   </si>
   <si>
-    <t>${obj}</t>
+    <t>not here</t>
   </si>
 </sst>
 </file>
@@ -408,29 +392,29 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
